--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.2314498912568</v>
+        <v>337.494432259049</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.3203003295961</v>
+        <v>461.7747714203559</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.1185032455239</v>
+        <v>417.7036353409585</v>
       </c>
       <c r="AD2" t="n">
-        <v>277231.4498912568</v>
+        <v>337494.432259049</v>
       </c>
       <c r="AE2" t="n">
-        <v>379320.3003295962</v>
+        <v>461774.7714203559</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.286230723339328e-06</v>
+        <v>3.295977476531812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.29282407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>343118.5032455239</v>
+        <v>417703.6353409585</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.428611197634</v>
+        <v>212.5954501750509</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.8197005032886</v>
+        <v>290.8824739786916</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.6951536483147</v>
+        <v>263.1210589183673</v>
       </c>
       <c r="AD3" t="n">
-        <v>169428.611197634</v>
+        <v>212595.4501750509</v>
       </c>
       <c r="AE3" t="n">
-        <v>231819.7005032886</v>
+        <v>290882.4739786916</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.162710199168834e-06</v>
+        <v>4.559566746628278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.612268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>209695.1536483147</v>
+        <v>263121.0589183673</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.5996195998237</v>
+        <v>205.5958663766484</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.4759729253227</v>
+        <v>281.3053346258789</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.243178316383</v>
+        <v>254.4579483037844</v>
       </c>
       <c r="AD4" t="n">
-        <v>162599.6195998237</v>
+        <v>205595.8663766484</v>
       </c>
       <c r="AE4" t="n">
-        <v>222475.9729253227</v>
+        <v>281305.3346258789</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.279773699176262e-06</v>
+        <v>4.728333028792879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.265046296296298</v>
       </c>
       <c r="AH4" t="n">
-        <v>201243.178316383</v>
+        <v>254457.9483037844</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.3661680761229</v>
+        <v>261.8707094061437</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.2005159788404</v>
+        <v>358.3030575298216</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.5996246293785</v>
+        <v>324.1071166006743</v>
       </c>
       <c r="AD2" t="n">
-        <v>211366.1680761229</v>
+        <v>261870.7094061437</v>
       </c>
       <c r="AE2" t="n">
-        <v>289200.5159788404</v>
+        <v>358303.0575298216</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.724246310545538e-06</v>
+        <v>3.988194115345121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.53935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>261599.6246293785</v>
+        <v>324107.1166006743</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.8426653520482</v>
+        <v>196.7591909264706</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.8625659108525</v>
+        <v>269.2146054283449</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.64269997136</v>
+        <v>243.5211413314142</v>
       </c>
       <c r="AD3" t="n">
-        <v>154842.6653520482</v>
+        <v>196759.1909264706</v>
       </c>
       <c r="AE3" t="n">
-        <v>211862.5659108525</v>
+        <v>269214.6054283449</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.358543733428476e-06</v>
+        <v>4.916781680840889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.363425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>191642.69997136</v>
+        <v>243521.1413314142</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.1365055318269</v>
+        <v>186.8876978570051</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.6869021899394</v>
+        <v>255.7079931111707</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.3427487178431</v>
+        <v>231.3035811371374</v>
       </c>
       <c r="AD2" t="n">
-        <v>148136.5055318269</v>
+        <v>186887.6978570051</v>
       </c>
       <c r="AE2" t="n">
-        <v>202686.9021899394</v>
+        <v>255707.9931111707</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.377476275859391e-06</v>
+        <v>5.225372690496807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.38773148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>183342.7487178431</v>
+        <v>231303.5811371374</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.7489670062722</v>
+        <v>184.8562945649946</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.0519225316255</v>
+        <v>252.9285375078551</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.1501250128824</v>
+        <v>228.789392875611</v>
       </c>
       <c r="AD2" t="n">
-        <v>144748.9670062722</v>
+        <v>184856.2945649946</v>
       </c>
       <c r="AE2" t="n">
-        <v>198051.9225316255</v>
+        <v>252928.5375078551</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42054231675681e-06</v>
+        <v>5.169444972106398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.814814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>179150.1250128824</v>
+        <v>228789.392875611</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.7786830923024</v>
+        <v>184.8860106510247</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.0925813915132</v>
+        <v>252.9691963677427</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.1869034482474</v>
+        <v>228.826171310976</v>
       </c>
       <c r="AD3" t="n">
-        <v>144778.6830923024</v>
+        <v>184886.0106510248</v>
       </c>
       <c r="AE3" t="n">
-        <v>198092.5813915132</v>
+        <v>252969.1963677427</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.430749774584291e-06</v>
+        <v>5.184871441554171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.780092592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>179186.9034482474</v>
+        <v>228826.171310976</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.6651639056069</v>
+        <v>199.847441527861</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.6197006010204</v>
+        <v>273.4400861451659</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.4230133858347</v>
+        <v>247.3433480991227</v>
       </c>
       <c r="AD2" t="n">
-        <v>154665.1639056069</v>
+        <v>199847.441527861</v>
       </c>
       <c r="AE2" t="n">
-        <v>211619.7006010204</v>
+        <v>273440.086145166</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.241585840475715e-06</v>
+        <v>5.123287490536268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.23842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>191423.0133858347</v>
+        <v>247343.3480991228</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.3878694852449</v>
+        <v>281.5364663431868</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.2808940899425</v>
+        <v>385.2106137630485</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.2407526190054</v>
+        <v>348.4466534319944</v>
       </c>
       <c r="AD2" t="n">
-        <v>222387.8694852449</v>
+        <v>281536.4663431867</v>
       </c>
       <c r="AE2" t="n">
-        <v>304280.8940899425</v>
+        <v>385210.6137630484</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.609913129017673e-06</v>
+        <v>3.804956566037099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.93865740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>275240.7526190054</v>
+        <v>348446.6534319944</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.9632318764136</v>
+        <v>199.1635529380225</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.7640185822801</v>
+        <v>272.5043596055141</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.267242072042</v>
+        <v>246.4969259871145</v>
       </c>
       <c r="AD3" t="n">
-        <v>156963.2318764136</v>
+        <v>199163.5529380225</v>
       </c>
       <c r="AE3" t="n">
-        <v>214764.0185822801</v>
+        <v>272504.3596055142</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.338550220551199e-06</v>
+        <v>4.867226591373981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.33449074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>194267.242072042</v>
+        <v>246496.9259871145</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.2106078004965</v>
+        <v>199.4109288621053</v>
       </c>
       <c r="AB4" t="n">
-        <v>215.1024892350656</v>
+        <v>272.8428302582997</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.5734095607723</v>
+        <v>246.8030934758448</v>
       </c>
       <c r="AD4" t="n">
-        <v>157210.6078004965</v>
+        <v>199410.9288621053</v>
       </c>
       <c r="AE4" t="n">
-        <v>215102.4892350656</v>
+        <v>272842.8302582997</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.338657903561845e-06</v>
+        <v>4.867383580958749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.33449074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>194573.4095607723</v>
+        <v>246803.0934758448</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.4407364024376</v>
+        <v>206.9676569426791</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.2585819252272</v>
+        <v>283.1822789974498</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.0465348082263</v>
+        <v>256.1557597388412</v>
       </c>
       <c r="AD2" t="n">
-        <v>162440.7364024376</v>
+        <v>206967.6569426791</v>
       </c>
       <c r="AE2" t="n">
-        <v>222258.5819252272</v>
+        <v>283182.2789974498</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105130546391629e-06</v>
+        <v>4.975148523274536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.00810185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>201046.5348082263</v>
+        <v>256155.7597388412</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.4567657485552</v>
+        <v>213.5375785123985</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.9629551526071</v>
+        <v>292.1715355336187</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.442981888998</v>
+        <v>264.2870942477019</v>
       </c>
       <c r="AD2" t="n">
-        <v>172456.7657485552</v>
+        <v>213537.5785123985</v>
       </c>
       <c r="AE2" t="n">
-        <v>235962.9551526071</v>
+        <v>292171.5355336188</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.121908265282208e-06</v>
+        <v>4.635544249766559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.37615740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>213442.981888998</v>
+        <v>264287.0942477019</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.5097739994168</v>
+        <v>190.6758381092807</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.5658686916238</v>
+        <v>260.8910937252847</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.0423892937534</v>
+        <v>235.9920139031695</v>
       </c>
       <c r="AD3" t="n">
-        <v>149509.7739994168</v>
+        <v>190675.8381092807</v>
       </c>
       <c r="AE3" t="n">
-        <v>204565.8686916238</v>
+        <v>260891.0937252847</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.408954553462068e-06</v>
+        <v>5.061762978031689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.502314814814817</v>
       </c>
       <c r="AH3" t="n">
-        <v>185042.3892937534</v>
+        <v>235992.0139031695</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.2381389574321</v>
+        <v>242.030759074216</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.9746556046589</v>
+        <v>331.1571622086876</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.8268989996748</v>
+        <v>299.5519874295852</v>
       </c>
       <c r="AD2" t="n">
-        <v>200238.1389574321</v>
+        <v>242030.759074216</v>
       </c>
       <c r="AE2" t="n">
-        <v>273974.6556046589</v>
+        <v>331157.1622086876</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.856522750945969e-06</v>
+        <v>4.20035239562667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>247826.8989996748</v>
+        <v>299551.9874295852</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.1542783956528</v>
+        <v>194.7762168032935</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.5524403907378</v>
+        <v>266.5014127503712</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.5530495886029</v>
+        <v>241.0668919546357</v>
       </c>
       <c r="AD3" t="n">
-        <v>153154.2783956528</v>
+        <v>194776.2168032935</v>
       </c>
       <c r="AE3" t="n">
-        <v>209552.4403907378</v>
+        <v>266501.4127503712</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.378488210323363e-06</v>
+        <v>4.967872579740085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.392361111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>189553.0495886029</v>
+        <v>241066.8919546357</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.9986130325598</v>
+        <v>314.9872386362956</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.9003520958244</v>
+        <v>430.9794361584007</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.6017921766227</v>
+        <v>389.8473636548799</v>
       </c>
       <c r="AD2" t="n">
-        <v>254998.6130325598</v>
+        <v>314987.2386362956</v>
       </c>
       <c r="AE2" t="n">
-        <v>348900.3520958244</v>
+        <v>430979.4361584007</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.391113874475065e-06</v>
+        <v>3.459397813896809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>315601.7921766227</v>
+        <v>389847.3636548799</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.0970446169507</v>
+        <v>206.8364284580039</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.5248158954844</v>
+        <v>283.002726395325</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.0964825890421</v>
+        <v>255.9933433850595</v>
       </c>
       <c r="AD3" t="n">
-        <v>164097.0446169507</v>
+        <v>206836.4284580039</v>
       </c>
       <c r="AE3" t="n">
-        <v>224524.8158954844</v>
+        <v>283002.726395325</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.237913766790491e-06</v>
+        <v>4.684524616746024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.461805555555557</v>
       </c>
       <c r="AH3" t="n">
-        <v>203096.4825890421</v>
+        <v>255993.3433850595</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.7375618896961</v>
+        <v>203.4769457307492</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.928223418139</v>
+        <v>278.4061339179797</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.9385824463751</v>
+        <v>251.8354432423925</v>
       </c>
       <c r="AD4" t="n">
-        <v>160737.5618896961</v>
+        <v>203476.9457307492</v>
       </c>
       <c r="AE4" t="n">
-        <v>219928.223418139</v>
+        <v>278406.1339179797</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.300698504992923e-06</v>
+        <v>4.775359849815491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>198938.5824463751</v>
+        <v>251835.4432423925</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.7512864406127</v>
+        <v>189.2303326066069</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.5280725515593</v>
+        <v>258.9132893253253</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.1036389607402</v>
+        <v>234.2029683792756</v>
       </c>
       <c r="AD2" t="n">
-        <v>148751.2864406127</v>
+        <v>189230.3326066069</v>
       </c>
       <c r="AE2" t="n">
-        <v>203528.0725515592</v>
+        <v>258913.2893253253</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.366164098897214e-06</v>
+        <v>5.054916835630302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.843750000000002</v>
       </c>
       <c r="AH2" t="n">
-        <v>184103.6389607402</v>
+        <v>234202.9683792756</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.4873861706579</v>
+        <v>186.966432336652</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.4305043259775</v>
+        <v>255.8157210997436</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.3016982991427</v>
+        <v>231.4010277176782</v>
       </c>
       <c r="AD3" t="n">
-        <v>146487.3861706579</v>
+        <v>186966.432336652</v>
       </c>
       <c r="AE3" t="n">
-        <v>200430.5043259775</v>
+        <v>255815.7210997436</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.426298716833821e-06</v>
+        <v>5.145220066156568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.675925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>181301.6982991427</v>
+        <v>231401.0277176782</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.3097209085693</v>
+        <v>188.5154295229503</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.292147227007</v>
+        <v>257.9351273869688</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.794791421549</v>
+        <v>233.3181608434567</v>
       </c>
       <c r="AD2" t="n">
-        <v>149309.7209085693</v>
+        <v>188515.4295229503</v>
       </c>
       <c r="AE2" t="n">
-        <v>204292.147227007</v>
+        <v>257935.1273869688</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.411512123913628e-06</v>
+        <v>5.232395628823122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.12152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>184794.791421549</v>
+        <v>233318.1608434567</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.2329610548306</v>
+        <v>193.1571807408068</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.4506327749446</v>
+        <v>264.286176182848</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.2244671206999</v>
+        <v>239.0630744560121</v>
       </c>
       <c r="AD2" t="n">
-        <v>147232.9610548306</v>
+        <v>193157.1807408068</v>
       </c>
       <c r="AE2" t="n">
-        <v>201450.6327749446</v>
+        <v>264286.176182848</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.32996640552527e-06</v>
+        <v>5.203006823828615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.72337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>182224.4671206999</v>
+        <v>239063.0744560121</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.4451140290011</v>
+        <v>223.3168149425611</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.9470127558756</v>
+        <v>305.551918246823</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.4285610122353</v>
+        <v>276.3904720142472</v>
       </c>
       <c r="AD2" t="n">
-        <v>172445.1140290011</v>
+        <v>223316.8149425611</v>
       </c>
       <c r="AE2" t="n">
-        <v>235947.0127558757</v>
+        <v>305551.918246823</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.859375038222663e-06</v>
+        <v>4.659855255360863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.40277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>213428.5610122353</v>
+        <v>276390.4720142472</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.43874595096</v>
+        <v>232.1365789317149</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.6207408394171</v>
+        <v>317.6195084373031</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.7972876786859</v>
+        <v>287.306348333921</v>
       </c>
       <c r="AD2" t="n">
-        <v>182438.74595096</v>
+        <v>232136.5789317149</v>
       </c>
       <c r="AE2" t="n">
-        <v>249620.7408394171</v>
+        <v>317619.5084373031</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.976659259573654e-06</v>
+        <v>4.397659252430524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.76967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>225797.2876786859</v>
+        <v>287306.348333921</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.334124221942</v>
+        <v>192.6495102174552</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.0620251507331</v>
+        <v>263.5915589759559</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.3003160837837</v>
+        <v>238.4347505404442</v>
       </c>
       <c r="AD3" t="n">
-        <v>151334.124221942</v>
+        <v>192649.5102174552</v>
       </c>
       <c r="AE3" t="n">
-        <v>207062.0251507331</v>
+        <v>263591.5589759559</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.390113391986289e-06</v>
+        <v>5.008488451309163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.456018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>187300.3160837837</v>
+        <v>238434.7505404442</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.0254595162419</v>
+        <v>294.1141052144642</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.5181552365531</v>
+        <v>402.4198941529954</v>
       </c>
       <c r="AC2" t="n">
-        <v>300.7830891930374</v>
+        <v>364.0135042549014</v>
       </c>
       <c r="AD2" t="n">
-        <v>243025.4595162419</v>
+        <v>294114.1052144642</v>
       </c>
       <c r="AE2" t="n">
-        <v>332518.1552365531</v>
+        <v>402419.8941529954</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.493739484449715e-06</v>
+        <v>3.62133121236805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.38425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>300783.0891930374</v>
+        <v>364013.5042549014</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.0212467308128</v>
+        <v>202.4955687337532</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.9481294161609</v>
+        <v>277.063370615393</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.0520272403749</v>
+        <v>250.6208313848241</v>
       </c>
       <c r="AD3" t="n">
-        <v>160021.2467308128</v>
+        <v>202495.5687337532</v>
       </c>
       <c r="AE3" t="n">
-        <v>218948.1294161609</v>
+        <v>277063.370615393</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.303812484492715e-06</v>
+        <v>4.797694123427974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.351851851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>198052.0272403749</v>
+        <v>250620.8313848241</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.629038775543</v>
+        <v>201.1033607784834</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.0432490718815</v>
+        <v>275.1584902711136</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.3289460026366</v>
+        <v>248.8977501470858</v>
       </c>
       <c r="AD4" t="n">
-        <v>158629.038775543</v>
+        <v>201103.3607784834</v>
       </c>
       <c r="AE4" t="n">
-        <v>217043.2490718815</v>
+        <v>275158.4902711136</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.332476770274416e-06</v>
+        <v>4.83931951109529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>196328.9460026366</v>
+        <v>248897.7501470858</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.006006639295</v>
+        <v>258.8460670553658</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.3935301598003</v>
+        <v>354.1646084276844</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.014919562186</v>
+        <v>320.3636352724953</v>
       </c>
       <c r="AD2" t="n">
-        <v>202006.006639295</v>
+        <v>258846.0670553658</v>
       </c>
       <c r="AE2" t="n">
-        <v>276393.5301598003</v>
+        <v>354164.6084276844</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.4140345229497e-06</v>
+        <v>4.024051723893403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.44097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>250014.919562186</v>
+        <v>320363.6352724953</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.8681648563239</v>
+        <v>190.3527290020753</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.4785260549328</v>
+        <v>260.4490015902387</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.8223298841397</v>
+        <v>235.5921144210119</v>
       </c>
       <c r="AD2" t="n">
-        <v>142868.1648563239</v>
+        <v>190352.7290020753</v>
       </c>
       <c r="AE2" t="n">
-        <v>195478.5260549328</v>
+        <v>260449.0015902387</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425571403697559e-06</v>
+        <v>5.213399802468301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.930555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>176822.3298841397</v>
+        <v>235592.1144210119</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.377137026616</v>
+        <v>204.1229914457508</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.5398065703075</v>
+        <v>279.2900821667698</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.2054811713906</v>
+        <v>252.6350287109476</v>
       </c>
       <c r="AD2" t="n">
-        <v>163377.137026616</v>
+        <v>204122.9914457508</v>
       </c>
       <c r="AE2" t="n">
-        <v>223539.8065703075</v>
+        <v>279290.0821667698</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.26464031842303e-06</v>
+        <v>4.873816443507014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>202205.4811713906</v>
+        <v>252635.0287109475</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.8883792035946</v>
+        <v>188.71948496875</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.347404801091</v>
+        <v>258.2143250502027</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.0356524832987</v>
+        <v>233.570712273568</v>
       </c>
       <c r="AD3" t="n">
-        <v>147888.3792035946</v>
+        <v>188719.48496875</v>
       </c>
       <c r="AE3" t="n">
-        <v>202347.404801091</v>
+        <v>258214.3250502027</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.425667758321667e-06</v>
+        <v>5.11421603056257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.560185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>183035.6524832987</v>
+        <v>233570.712273568</v>
       </c>
     </row>
   </sheetData>
